--- a/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Edad-trans_dic.xlsx
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06139970527378754</v>
+        <v>0.06143692001164875</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03545656646556741</v>
+        <v>0.03469919248512218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -708,25 +708,25 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4391353268938211</v>
+        <v>0.4588625314231709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5004865460436101</v>
+        <v>0.5219254713879785</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2319026032264269</v>
+        <v>0.2695727014919008</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3081618459038107</v>
+        <v>0.3083391693381496</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3397804218771164</v>
+        <v>0.3340584838596631</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1398431342798931</v>
+        <v>0.1564204158221283</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2368582018268992</v>
+        <v>0.2322474805413247</v>
       </c>
     </row>
     <row r="7">
@@ -779,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01304899078660612</v>
+        <v>0.01300067972385461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02629489257571033</v>
+        <v>0.02263236322302328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.135511692264468</v>
+        <v>0.1398419633889199</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07502736516843821</v>
+        <v>0.07446051993770518</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1215560880864002</v>
+        <v>0.1169360577779751</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09346682514689045</v>
+        <v>0.09482526680813079</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05368543282535824</v>
+        <v>0.05626459442168192</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09624655845062717</v>
+        <v>0.09387727818145038</v>
       </c>
     </row>
     <row r="9">
@@ -811,31 +811,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1473281377681161</v>
+        <v>0.1278069679392217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1150481861857598</v>
+        <v>0.1315397251938659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2062067505457078</v>
+        <v>0.2001257880114094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3441431801788529</v>
+        <v>0.3543220262332274</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2291994738424907</v>
+        <v>0.2426816482878236</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3265736804097584</v>
+        <v>0.3409039936460578</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2381614765482891</v>
+        <v>0.23342078648143</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.152697603858361</v>
+        <v>0.1568473568467681</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2385138818236764</v>
+        <v>0.2347380709191165</v>
       </c>
     </row>
     <row r="10">
@@ -888,28 +888,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008419984459485717</v>
+        <v>0.009248962569854375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06074833743629268</v>
+        <v>0.05879316034403104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0303954958768559</v>
+        <v>0.02877702072450438</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07436984834918962</v>
+        <v>0.0813681554977491</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02027261512483929</v>
+        <v>0.01918751189116929</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008553212302494423</v>
+        <v>0.008216897518179179</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0853857458668381</v>
+        <v>0.08475688759246806</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07283986061458644</v>
+        <v>0.07438127794356342</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08374936451418896</v>
+        <v>0.08590260287404194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2204499694578139</v>
+        <v>0.2249880964940627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1741612351061884</v>
+        <v>0.158192348850694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0561867098218183</v>
+        <v>0.05501346733721574</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.226027297592383</v>
+        <v>0.226858110496588</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08882905337519163</v>
+        <v>0.09243468057349798</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05764854011116841</v>
+        <v>0.04924378360101368</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1861093900858481</v>
+        <v>0.1927463244648532</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00864007336996666</v>
+        <v>0.008574180642808706</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02977393445808854</v>
+        <v>0.0293609967065688</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01156750634395964</v>
+        <v>0.011505188311098</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06183776513202795</v>
+        <v>0.06788331061212544</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01020693873229627</v>
+        <v>0.01042795044774118</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008208093470143774</v>
+        <v>0.008078022812763144</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05838884442917625</v>
+        <v>0.05707705060281162</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0829364130496659</v>
+        <v>0.09192273273537233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03889859541385871</v>
+        <v>0.04184576910157212</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1361742702403677</v>
+        <v>0.1402163278887607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.120221417507772</v>
+        <v>0.1332731507750118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1082113410245265</v>
+        <v>0.1039750106552981</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2107590289053882</v>
+        <v>0.2134029499767082</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07141626020331876</v>
+        <v>0.06791496667371787</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05285331864582606</v>
+        <v>0.04848326401500489</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1465449737522488</v>
+        <v>0.1492170033908523</v>
       </c>
     </row>
     <row r="16">
@@ -1103,27 +1103,27 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01432506487220155</v>
+        <v>0.01406453293973979</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>0.006707981026613458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0756217770873442</v>
+        <v>0.08266752376847518</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.03223226776234175</v>
+        <v>0.03197392794335337</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01178770225567142</v>
+        <v>0.01208631440317957</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004871602975055506</v>
+        <v>0.004913170708069438</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07773172736906547</v>
+        <v>0.07849771326468274</v>
       </c>
     </row>
     <row r="18">
@@ -1134,27 +1134,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0817983230512899</v>
+        <v>0.08134377972086165</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05688690072484603</v>
+        <v>0.05732731687009125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2028820104425266</v>
+        <v>0.208005949166211</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.2412229075426673</v>
+        <v>0.2406051324020107</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06850167004264648</v>
+        <v>0.07608441342870996</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0419043502242045</v>
+        <v>0.04364006889059447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1791101495987819</v>
+        <v>0.1852967524696769</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03857287622123785</v>
+        <v>0.03854596344435548</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.006178482943356016</v>
+        <v>0.006221456471791629</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03717297223445884</v>
+        <v>0.03350505910017534</v>
       </c>
     </row>
     <row r="21">
@@ -1237,29 +1237,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05118642916970526</v>
+        <v>0.05151484717981319</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03427584690874902</v>
+        <v>0.03835128270538262</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.137773635813962</v>
+        <v>0.1336185512509699</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3394430719476654</v>
+        <v>0.3907018540654899</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.206638785720039</v>
+        <v>0.2070000887498746</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05986453185295298</v>
+        <v>0.06021586595336313</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0311398862744499</v>
+        <v>0.03167307027320625</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1174084368426316</v>
+        <v>0.1185709732934311</v>
       </c>
     </row>
     <row r="22">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007447599756394667</v>
+        <v>0.00740597337459064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03148367075864011</v>
+        <v>0.03297066824090635</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="inlineStr"/>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.007094496390241286</v>
+        <v>0.007118942914124701</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03073891082834817</v>
+        <v>0.03025467504367427</v>
       </c>
     </row>
     <row r="24">
@@ -1338,25 +1338,25 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04345003281323007</v>
+        <v>0.03683504128753097</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09765955191620708</v>
+        <v>0.08441759177197129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1238981605370816</v>
+        <v>0.1239445051905889</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.03382973560698298</v>
+        <v>0.04055122951603843</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08601077353629051</v>
+        <v>0.0855630069802412</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1211558592351811</v>
+        <v>0.1268978658261371</v>
       </c>
     </row>
     <row r="25">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09190610851847164</v>
+        <v>0.09701412316007132</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08871142418112429</v>
+        <v>0.0876867144835464</v>
       </c>
     </row>
     <row r="27">
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1693644430624982</v>
+        <v>0.1706020966101033</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1300490643128646</v>
+        <v>0.1310547499734259</v>
       </c>
     </row>
     <row r="28">
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
@@ -1730,25 +1730,25 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4149</v>
+        <v>4335</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7729</v>
+        <v>8060</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4459</v>
+        <v>5184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5084</v>
+        <v>5087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9083</v>
+        <v>8930</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5036</v>
+        <v>5633</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6146</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="8">
@@ -1836,28 +1836,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1278</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9495</v>
+        <v>9798</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6217</v>
+        <v>6170</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7046</v>
+        <v>6779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10236</v>
+        <v>10385</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8353</v>
+        <v>8755</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10256</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="11">
@@ -1868,31 +1868,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5813</v>
+        <v>5042</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8368</v>
+        <v>9568</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10021</v>
+        <v>9725</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24113</v>
+        <v>24826</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18992</v>
+        <v>20109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18931</v>
+        <v>19762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26083</v>
+        <v>25564</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23759</v>
+        <v>24405</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25417</v>
+        <v>25014</v>
       </c>
     </row>
     <row r="12">
@@ -1980,28 +1980,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>946</v>
+        <v>1039</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4515</v>
+        <v>4370</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2014</v>
+        <v>1907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6540</v>
+        <v>7155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3066</v>
+        <v>2901</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2022</v>
+        <v>1943</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13854</v>
+        <v>13752</v>
       </c>
     </row>
     <row r="15">
@@ -2012,31 +2012,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9410</v>
+        <v>9652</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16384</v>
+        <v>16721</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11540</v>
+        <v>10482</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6972</v>
+        <v>6827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19876</v>
+        <v>19949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13432</v>
+        <v>13978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13631</v>
+        <v>11644</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30197</v>
+        <v>31274</v>
       </c>
     </row>
     <row r="16">
@@ -2121,31 +2121,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3221</v>
+        <v>3177</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5456</v>
+        <v>5989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1881</v>
+        <v>1922</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2147</v>
+        <v>2113</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11469</v>
+        <v>11211</v>
       </c>
     </row>
     <row r="19">
@@ -2156,31 +2156,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10413</v>
+        <v>11541</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6610</v>
+        <v>7111</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14732</v>
+        <v>15170</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7063</v>
+        <v>7829</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9911</v>
+        <v>9523</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18595</v>
+        <v>18828</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13162</v>
+        <v>12517</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13822</v>
+        <v>12679</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28784</v>
+        <v>29309</v>
       </c>
     </row>
     <row r="20">
@@ -2265,27 +2265,27 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1835</v>
+        <v>1802</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10057</v>
+        <v>10994</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1716</v>
+        <v>1759</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14762</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="23">
@@ -2296,27 +2296,27 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10480</v>
+        <v>10422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7978</v>
+        <v>8040</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26982</v>
+        <v>27664</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>13730</v>
+        <v>13695</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9971</v>
+        <v>11075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8046</v>
+        <v>8379</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34016</v>
+        <v>35191</v>
       </c>
     </row>
     <row r="24">
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5538</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="27">
@@ -2434,29 +2434,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6240</v>
+        <v>6280</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5571</v>
+        <v>6234</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16977</v>
+        <v>16465</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4597</v>
+        <v>5291</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5324</v>
+        <v>5333</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8108</v>
+        <v>8156</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5392</v>
+        <v>5485</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17492</v>
+        <v>17665</v>
       </c>
     </row>
     <row r="28">
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3423</v>
+        <v>3585</v>
       </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3419</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="31">
@@ -2570,25 +2570,25 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4923</v>
+        <v>4173</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13817</v>
+        <v>11943</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13471</v>
+        <v>13476</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>4145</v>
+        <v>4969</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>12720</v>
+        <v>12654</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>13475</v>
+        <v>14114</v>
       </c>
     </row>
     <row r="32">
@@ -2673,31 +2673,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>30863</v>
+        <v>32578</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>83504</v>
+        <v>82540</v>
       </c>
     </row>
     <row r="35">
@@ -2708,31 +2708,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>56874</v>
+        <v>57290</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>122416</v>
+        <v>123362</v>
       </c>
     </row>
     <row r="36">
